--- a/bots/crawl_ch/output/clean_coop_2022-07-31.xlsx
+++ b/bots/crawl_ch/output/clean_coop_2022-07-31.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1455,153 +1455,153 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6340089</t>
+          <t>3180406</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cillit Bang WC Kraft Javel Power</t>
+          <t>Scotch-B. Schwamm Synth. Classic</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/cillit-bang-wc-kraft-javel-power/p/6340089</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-b-schwamm-synth-classic/p/3180406</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>750ml</t>
+          <t>3ST</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
         <v>4.5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cillit</t>
+          <t>Scotch-Brite</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.79/100ml</t>
+          <t>1.25/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Cillit Bang WC Kraft Javel Power 5.95 Schweizer Franken</t>
+          <t>Scotch-B. Schwamm Synth. Classic 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3180406</t>
+          <t>6340089</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Scotch-B. Schwamm Synth. Classic</t>
+          <t>Cillit Bang WC Kraft Javel Power</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-b-schwamm-synth-classic/p/3180406</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/cillit-bang-wc-kraft-javel-power/p/6340089</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
         <v>4.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Scotch-Brite</t>
+          <t>Cillit</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.25/1ST</t>
+          <t>0.79/100ml</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Scotch-B. Schwamm Synth. Classic 3.75 Schweizer Franken</t>
+          <t>Cillit Bang WC Kraft Javel Power 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -1893,153 +1893,153 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3181694</t>
+          <t>3524421</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ajax Fensterreiniger Triple Action</t>
+          <t>Reosal grobkörnig</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/ajax-fensterreiniger-triple-action/p/3181694</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/reosal-grobkoernig/p/3524421</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>500ml</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Reosal</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.92/100ml</t>
+          <t>1.35/1kg</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ajax Fensterreiniger Triple Action 4.60 Schweizer Franken</t>
+          <t>Reosal grobkörnig 1.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3524421</t>
+          <t>3181694</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Reosal grobkörnig</t>
+          <t>Ajax Fensterreiniger Triple Action</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/reosal-grobkoernig/p/3524421</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/ajax-fensterreiniger-triple-action/p/3181694</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>500ml</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Reosal</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.35/1kg</t>
+          <t>0.92/100ml</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Reosal grobkörnig 1.35 Schweizer Franken</t>
+          <t>Ajax Fensterreiniger Triple Action 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2112,50 +2112,50 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3181687</t>
+          <t>5935472</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Palmolive Ultra Hygiene</t>
+          <t>Oecoplan WC-Reiniger Nachfüllbeutel</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/palmolive-ultra-hygiene/p/3181687</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/oecoplan-wc-reiniger-nachfuellbeutel/p/5935472</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>500ml</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Palmolive</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.90/100ml</t>
+          <t>0.39/100ml</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2175,60 +2175,60 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Palmolive Ultra Hygiene 4.50 Schweizer Franken</t>
+          <t>Oecoplan WC-Reiniger Nachfüllbeutel 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5935472</t>
+          <t>3181687</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Oecoplan WC-Reiniger Nachfüllbeutel</t>
+          <t>Palmolive Ultra Hygiene</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/oecoplan-wc-reiniger-nachfuellbeutel/p/5935472</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/palmolive-ultra-hygiene/p/3181687</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>750ml</t>
+          <t>500ml</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Palmolive</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.39/100ml</t>
+          <t>0.90/100ml</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2248,17 +2248,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Oecoplan WC-Reiniger Nachfüllbeutel 2.95 Schweizer Franken</t>
+          <t>Palmolive Ultra Hygiene 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2767,50 +2767,50 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4017673</t>
+          <t>5614666</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ajax Glas Streifenfrei Nachfüllbeutel</t>
+          <t>Flup Siphon</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/ajax-glas-streifenfrei-nachfuellbeutel/p/4017673</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/abflussreiniger/flup-siphon/p/5614666</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>500ml</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Flup</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.82/100ml</t>
+          <t>0.50/100ml</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2830,60 +2830,60 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'abflussreiniger']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Ajax Glas Streifenfrei Nachfüllbeutel 4.10 Schweizer Franken</t>
+          <t>Flup Siphon 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5614666</t>
+          <t>4017673</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Flup Siphon</t>
+          <t>Ajax Glas Streifenfrei Nachfüllbeutel</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/abflussreiniger/flup-siphon/p/5614666</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/ajax-glas-streifenfrei-nachfuellbeutel/p/4017673</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1000ml</t>
+          <t>500ml</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Flup</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.50/100ml</t>
+          <t>0.82/100ml</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2903,17 +2903,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'abflussreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Flup Siphon 4.95 Schweizer Franken</t>
+          <t>Ajax Glas Streifenfrei Nachfüllbeutel 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -4008,153 +4008,153 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3181465</t>
+          <t>6118375</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cif Crème Regular</t>
+          <t>Clean Mehrzwecktücher</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/cif-creme-regular/p/3181465</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/clean-mehrzwecktuecher/p/6118375</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>500ml</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cif</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.90/100ml</t>
+          <t>0.52/1ST</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Cif Crème Regular 4.50 Schweizer Franken</t>
+          <t>Clean Mehrzwecktücher 3.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6118375</t>
+          <t>3181465</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Clean Mehrzwecktücher</t>
+          <t>Cif Crème Regular</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/clean-mehrzwecktuecher/p/6118375</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/cif-creme-regular/p/3181465</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>500ml</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F51" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Cif</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0.52/1ST</t>
+          <t>0.90/100ml</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Clean Mehrzwecktücher 3.10 Schweizer Franken</t>
+          <t>Cif Crème Regular 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -4300,153 +4300,153 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4248544</t>
+          <t>3513874</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Swiffer Staubmagnet Refill, 4 Stück</t>
+          <t>Rorax Abflussreiniger</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/staubfaenger/swiffer-staubmagnet-refill-4-stueck/p/4248544</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/abflussreiniger/rorax-abflussreiniger/p/3513874</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F54" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Swiffer</t>
+          <t>Rorax</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.45/1ST</t>
+          <t>0.66/100ml</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'staubfaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'abflussreiniger']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Swiffer Staubmagnet Refill, 4 Stück 5.80 Schweizer Franken</t>
+          <t>Rorax Abflussreiniger 6.55 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3513874</t>
+          <t>4248544</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rorax Abflussreiniger</t>
+          <t>Swiffer Staubmagnet Refill, 4 Stück</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/abflussreiniger/rorax-abflussreiniger/p/3513874</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/staubfaenger/swiffer-staubmagnet-refill-4-stueck/p/4248544</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1000ml</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F55" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rorax</t>
+          <t>Swiffer</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.66/100ml</t>
+          <t>1.45/1ST</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'abflussreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'staubfaenger']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Rorax Abflussreiniger 6.55 Schweizer Franken</t>
+          <t>Swiffer Staubmagnet Refill, 4 Stück 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -4665,196 +4665,196 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6000336</t>
+          <t>6708224</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Finish Maschinenpfleger</t>
+          <t>Sun Geschirrspülpulver Regular 50 Waschgänge</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/finish-maschinenpfleger/p/6000336</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-geschirrspuelpulver-regular-50-waschgaenge/p/6708224</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>950g</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Finish</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2.32/1ST</t>
+          <t>0.94/100g</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Finish Maschinenpfleger 6.95 Schweizer Franken</t>
+          <t>Sun Geschirrspülpulver Regular 50 Waschgänge 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6708224</t>
+          <t>6000336</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sun Geschirrspülpulver Regular 50 Waschgänge</t>
+          <t>Finish Maschinenpfleger</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-geschirrspuelpulver-regular-50-waschgaenge/p/6708224</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/finish-maschinenpfleger/p/6000336</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>950g</t>
+          <t>3ST</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.94/100g</t>
+          <t>2.32/1ST</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Sun Geschirrspülpulver Regular 50 Waschgänge 8.95 Schweizer Franken</t>
+          <t>Finish Maschinenpfleger 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6080137</t>
+          <t>6793729</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cillit Bang Kalk und Schmutz</t>
+          <t>Ajax Badreiniger</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/cillit-bang-kalk-und-schmutz/p/6080137</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/ajax-badreiniger/p/6793729</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>880ml</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Cillit</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.79/100ml</t>
+          <t>0.91/100ml</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4874,60 +4874,60 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Cillit Bang Kalk und Schmutz 6.95 Schweizer Franken</t>
+          <t>Ajax Badreiniger 6.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6793729</t>
+          <t>6080137</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ajax Badreiniger</t>
+          <t>Cillit Bang Kalk und Schmutz</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/ajax-badreiniger/p/6793729</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/cillit-bang-kalk-und-schmutz/p/6080137</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>750ml</t>
+          <t>880ml</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Cillit</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.91/100ml</t>
+          <t>0.79/100ml</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4947,17 +4947,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Ajax Badreiniger 6.80 Schweizer Franken</t>
+          <t>Cillit Bang Kalk und Schmutz 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5103,113 +5103,113 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5614701</t>
+          <t>6430705</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Flup WC-Reiniger Power Ocean</t>
+          <t>Oecoplan Geschirrspül-Pulver Classic</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/flup-wc-reiniger-power-ocean/p/5614701</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/oecoplan-geschirrspuel-pulver-classic/p/6430705</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>750ml</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Flup</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.39/100ml</t>
+          <t>6.50/1kg</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Flup WC-Reiniger Power Ocean 2.95 Schweizer Franken</t>
+          <t>Oecoplan Geschirrspül-Pulver Classic 33% ab 3 Aktion 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6799668</t>
+          <t>5614701</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Scotch Brite Glaskeramikschwamm</t>
+          <t>Flup WC-Reiniger Power Ocean</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-glaskeramikschwamm/p/6799668</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/flup-wc-reiniger-power-ocean/p/5614701</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>750ml</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F66" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Scotch-Brite</t>
+          <t>Flup</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5219,110 +5219,110 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>0.39/100ml</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Scotch Brite Glaskeramikschwamm 2.95 Schweizer Franken</t>
+          <t>Flup WC-Reiniger Power Ocean 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6430705</t>
+          <t>6799668</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Oecoplan Geschirrspül-Pulver Classic</t>
+          <t>Scotch Brite Glaskeramikschwamm</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/oecoplan-geschirrspuel-pulver-classic/p/6430705</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-glaskeramikschwamm/p/6799668</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch-Brite</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>6.50/1kg</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Oecoplan Geschirrspül-Pulver Classic 33% ab 3 Aktion 6.50 Schweizer Franken</t>
+          <t>Scotch Brite Glaskeramikschwamm 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -5973,153 +5973,153 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6662072</t>
+          <t>4836365</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Prix Garantie Handschuhe Einweg Grösse M</t>
+          <t>WC Frisch Blau Kraft-Aktiv Ozean 50 g</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/prix-garantie-handschuhe-einweg-groesse-m/p/6662072</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-blau-kraft-aktiv-ozean-50-g/p/4836365</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>100ST</t>
+          <t>50g</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.09/1ST</t>
+          <t>7.90/100g</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Prix Garantie Handschuhe Einweg Grösse M 8.90 Schweizer Franken</t>
+          <t>WC Frisch Blau Kraft-Aktiv Ozean 50 g 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4836365</t>
+          <t>6662072</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>WC Frisch Blau Kraft-Aktiv Ozean 50 g</t>
+          <t>Prix Garantie Handschuhe Einweg Grösse M</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-blau-kraft-aktiv-ozean-50-g/p/4836365</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/prix-garantie-handschuhe-einweg-groesse-m/p/6662072</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>50g</t>
+          <t>100ST</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>7.90/100g</t>
+          <t>0.09/1ST</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>WC Frisch Blau Kraft-Aktiv Ozean 50 g 3.95 Schweizer Franken</t>
+          <t>Prix Garantie Handschuhe Einweg Grösse M 8.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6922,7 +6922,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -7287,153 +7287,153 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6607263</t>
+          <t>3368066</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Prix Garantie Badreiniger</t>
+          <t>Swiffer Wet 12 Stück</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/prix-garantie-badreiniger/p/6607263</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/swiffer-wet-12-stueck/p/3368066</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F95" t="n">
         <v>4.5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Swiffer</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.40/1l</t>
+          <t>0.50/1ST</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Preis pro 1 Liter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Prix Garantie Badreiniger 1.40 Schweizer Franken</t>
+          <t>Swiffer Wet 12 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3368066</t>
+          <t>6607263</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Swiffer Wet 12 Stück</t>
+          <t>Prix Garantie Badreiniger</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/swiffer-wet-12-stueck/p/3368066</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/prix-garantie-badreiniger/p/6607263</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
         <v>4.5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Swiffer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.50/1ST</t>
+          <t>1.40/1l</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Liter</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Swiffer Wet 12 Stück 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Badreiniger 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -7506,50 +7506,50 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6463334</t>
+          <t>6738696</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Super Clean Stahlknäuel, 6 Stück</t>
+          <t>Prix Garantie Allzwecktücher Lemon 80 Stück</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/super-clean-stahlknaeuel-6-stueck/p/6463334</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/prix-garantie-allzwecktuecher-lemon-80-stueck/p/6738696</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.53/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7569,60 +7569,60 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Super Clean Stahlknäuel, 6 Stück 3.20 Schweizer Franken</t>
+          <t>Prix Garantie Allzwecktücher Lemon 80 Stück 3.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6738696</t>
+          <t>6463334</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Prix Garantie Allzwecktücher Lemon 80 Stück</t>
+          <t>Super Clean Stahlknäuel, 6 Stück</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/prix-garantie-allzwecktuecher-lemon-80-stueck/p/6738696</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/super-clean-stahlknaeuel-6-stueck/p/6463334</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.53/1ST</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7642,17 +7642,17 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Prix Garantie Allzwecktücher Lemon 80 Stück 3.00 Schweizer Franken</t>
+          <t>Super Clean Stahlknäuel, 6 Stück 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -7798,153 +7798,153 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4248540</t>
+          <t>3372692</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Swiffer Staubmagnet 36 Stück</t>
+          <t>Ajax Blütenfest rote Blumen</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/staubfaenger/swiffer-staubmagnet-36-stueck/p/4248540</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/ajax-bluetenfest-rote-blumen/p/3372692</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>36ST</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F102" t="n">
         <v>4.5</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Swiffer</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.30/1ST</t>
+          <t>0.34/100ml</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'staubfaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Swiffer Staubmagnet 36 Stück 10.95 Schweizer Franken</t>
+          <t>Ajax Blütenfest rote Blumen 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3372692</t>
+          <t>4248540</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ajax Blütenfest rote Blumen</t>
+          <t>Swiffer Staubmagnet 36 Stück</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/ajax-bluetenfest-rote-blumen/p/3372692</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/staubfaenger/swiffer-staubmagnet-36-stueck/p/4248540</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1000ml</t>
+          <t>36ST</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F103" t="n">
         <v>4.5</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Swiffer</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0.34/100ml</t>
+          <t>0.30/1ST</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'staubfaenger']</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Ajax Blütenfest rote Blumen 3.40 Schweizer Franken</t>
+          <t>Swiffer Staubmagnet 36 Stück 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8236,153 +8236,153 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>4886918</t>
+          <t>3505245</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Durgol Oecoplan ecovite</t>
+          <t>Allzweck-Reinigungstücher</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/durgol-oecoplan-ecovite/p/4886918</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/allzweck-reinigungstuecher/p/3505245</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1000ml</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Durgol</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>0.70/100ml</t>
+          <t>0.10/1ST</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Durgol Oecoplan ecovite 6.95 Schweizer Franken</t>
+          <t>Allzweck-Reinigungstücher 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3505245</t>
+          <t>4886918</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Allzweck-Reinigungstücher</t>
+          <t>Durgol Oecoplan ecovite</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/allzweck-reinigungstuecher/p/3505245</t>
+          <t>/de/haushalt-tier/reinigung-putzen/entkalker-spezialreiniger/entkalker/durgol-oecoplan-ecovite/p/4886918</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>1000ml</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Durgol</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>0.10/1ST</t>
+          <t>0.70/100ml</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'entkalker-spezialreiniger', 'entkalker']</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Allzweck-Reinigungstücher 2.95 Schweizer Franken</t>
+          <t>Durgol Oecoplan ecovite 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8455,7 +8455,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8747,7 +8747,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -9830,48 +9830,50 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7016034</t>
+          <t>3221278</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Somat Geschirrspül Tabs All-in-1 100 Stück</t>
+          <t>WC-Bürste Flex mit Randreiniger weiss</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-geschirrspuel-tabs-all-in-1-100-stueck/p/7016034</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/wc-buerste-flex-mit-randreiniger-weiss/p/3221278</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>100ST</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Somat</t>
+          <t>Ebnat</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0.16/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9881,7 +9883,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -9891,204 +9893,202 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>Somat Geschirrspül Tabs All-in-1 100 Stück 50% Aktion 15.95 Schweizer Franken statt 32.25 Schweizer Franken</t>
+          <t>WC-Bürste Flex mit Randreiniger weiss 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3221278</t>
+          <t>7016034</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>WC-Bürste Flex mit Randreiniger weiss</t>
+          <t>Somat Geschirrspül Tabs All-in-1 100 Stück</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/wc-buerste-flex-mit-randreiniger-weiss/p/3221278</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-geschirrspuel-tabs-all-in-1-100-stueck/p/7016034</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>100ST</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Somat</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>0.16/1ST</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Ebnat</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>WC-Bürste Flex mit Randreiniger weiss 4.95 Schweizer Franken</t>
+          <t>Somat Geschirrspül Tabs All-in-1 100 Stück 50% Aktion 15.95 Schweizer Franken statt 32.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3474581</t>
+          <t>6748485</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Swiffer Staubmagnet XXL Set</t>
+          <t>Sun Tabs All-in-1 Active Regular 99 Stück</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/staubfaenger/swiffer-staubmagnet-xxl-set/p/3474581</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-tabs-all-in-1-active-regular-99-stueck/p/6748485</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>99ST</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>0.23/1ST</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>14</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Swiffer</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>13.95/1ST</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'staubfaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>Swiffer Staubmagnet XXL Set 13.95 Schweizer Franken</t>
+          <t>Sun Tabs All-in-1 Active Regular 99 Stück 45% Aktion 22.95 Schweizer Franken statt 42.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6748485</t>
+          <t>3474581</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sun Tabs All-in-1 Active Regular 99 Stück</t>
+          <t>Swiffer Staubmagnet XXL Set</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-tabs-all-in-1-active-regular-99-stueck/p/6748485</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/staubfaenger/swiffer-staubmagnet-xxl-set/p/3474581</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>99ST</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>14</v>
+      </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Swiffer</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0.23/1ST</t>
+          <t>13.95/1ST</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -10098,7 +10098,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -10108,17 +10108,17 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'staubfaenger']</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Sun Tabs All-in-1 Active Regular 99 Stück 45% Aktion 22.95 Schweizer Franken statt 42.25 Schweizer Franken</t>
+          <t>Swiffer Staubmagnet XXL Set 13.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -10264,50 +10264,50 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6138452</t>
+          <t>6160600</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Clean Cellulose Schwamm Universal</t>
+          <t>Somat Geschirrspül-Tabs 12 Gold 22 Stück</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/clean-cellulose-schwamm-universal/p/6138452</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-geschirrspuel-tabs-12-gold-22-stueck/p/6160600</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>22ST</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Somat</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1.20/1ST</t>
+          <t>0.43/1ST</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -10327,60 +10327,60 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Clean Cellulose Schwamm Universal 2.40 Schweizer Franken</t>
+          <t>Somat Geschirrspül-Tabs 12 Gold 22 Stück 9.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6160600</t>
+          <t>6138452</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Somat Geschirrspül-Tabs 12 Gold 22 Stück</t>
+          <t>Clean Cellulose Schwamm Universal</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/somat-geschirrspuel-tabs-12-gold-22-stueck/p/6160600</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/clean-cellulose-schwamm-universal/p/6138452</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>22ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F137" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Somat</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0.43/1ST</t>
+          <t>1.20/1ST</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -10400,17 +10400,17 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>Somat Geschirrspül-Tabs 12 Gold 22 Stück 9.50 Schweizer Franken</t>
+          <t>Clean Cellulose Schwamm Universal 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -10556,50 +10556,48 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6118372</t>
+          <t>6759824</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Super Clean Chifonet Universal, 20 Stück</t>
+          <t>Oecoplan Maschinenpfleger Tabs</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/super-clean-chifonet-universal-20-stueck/p/6118372</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/oecoplan-maschinenpfleger-tabs/p/6759824</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>20ST</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>0.23/1ST</t>
+          <t>1.33/1ST</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10609,7 +10607,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -10619,58 +10617,60 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>Super Clean Chifonet Universal, 20 Stück 4.50 Schweizer Franken</t>
+          <t>Oecoplan Maschinenpfleger Tabs 33% ab 3 Aktion 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6759824</t>
+          <t>6118372</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Oecoplan Maschinenpfleger Tabs</t>
+          <t>Super Clean Chifonet Universal, 20 Stück</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/spuelmaschinen-zusatz/oecoplan-maschinenpfleger-tabs/p/6759824</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/lappen/super-clean-chifonet-universal-20-stueck/p/6118372</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+          <t>20ST</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1.33/1ST</t>
+          <t>0.23/1ST</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -10690,17 +10690,17 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'spuelmaschinen-zusatz']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'lappen']</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>Oecoplan Maschinenpfleger Tabs 33% ab 3 Aktion 7.95 Schweizer Franken</t>
+          <t>Super Clean Chifonet Universal, 20 Stück 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -10986,347 +10986,347 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6142290</t>
+          <t>3875529</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Universal Einweg FSC M, 10 Stück</t>
+          <t>Prix Garantie WC-Einhänger Fresh 3 Stück</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-universal-einweg-fsc-m-10-stueck/p/6142290</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/prix-garantie-wc-einhaenger-fresh-3-stueck/p/3875529</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>165ml</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F146" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>0.27/1ST</t>
+          <t>1.18/100ml</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Universal Einweg FSC M, 10 Stück 2.65 Schweizer Franken</t>
+          <t>Prix Garantie WC-Einhänger Fresh 3 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6824241</t>
+          <t>3181656</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Prix Garantie Küchenreiniger</t>
+          <t>WC-Ente Active Clean Marine</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/prix-garantie-kuechenreiniger/p/6824241</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-active-clean-marine/p/3181656</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>40g</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1.40/1l</t>
+          <t>7.38/100g</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Preis pro 1 Liter</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>Prix Garantie Küchenreiniger 1.40 Schweizer Franken</t>
+          <t>WC-Ente Active Clean Marine 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3181656</t>
+          <t>6824241</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>WC-Ente Active Clean Marine</t>
+          <t>Prix Garantie Küchenreiniger</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-active-clean-marine/p/3181656</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/prix-garantie-kuechenreiniger/p/6824241</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>40g</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>7.38/100g</t>
+          <t>1.40/1l</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Liter</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>WC-Ente Active Clean Marine 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Küchenreiniger 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>6793725</t>
+          <t>6142290</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>WC Frisch Brilliant Gel Arctic Ocean</t>
+          <t>Super Clean Handschuhe Universal Einweg FSC M, 10 Stück</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-brilliant-gel-arctic-ocean/p/6793725</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-universal-einweg-fsc-m-10-stueck/p/6142290</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>42g</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F149" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.18/10g</t>
+          <t>0.27/1ST</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Preis pro 10 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>WC Frisch Brilliant Gel Arctic Ocean 4.95 Schweizer Franken</t>
+          <t>Super Clean Handschuhe Universal Einweg FSC M, 10 Stück 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>3875529</t>
+          <t>6793725</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Prix Garantie WC-Einhänger Fresh 3 Stück</t>
+          <t>WC Frisch Brilliant Gel Arctic Ocean</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/prix-garantie-wc-einhaenger-fresh-3-stueck/p/3875529</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-brilliant-gel-arctic-ocean/p/6793725</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>165ml</t>
+          <t>42g</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F150" t="n">
         <v>4.5</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1.18/100ml</t>
+          <t>1.18/10g</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 10 Gramm</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11346,12 +11346,12 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>Prix Garantie WC-Einhänger Fresh 3 Stück 1.95 Schweizer Franken</t>
+          <t>WC Frisch Brilliant Gel Arctic Ocean 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -11765,40 +11765,38 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>5889553</t>
+          <t>6858915</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Oecoplan Crème Reiniger</t>
+          <t>WC Ente Aktiv Gel Floral Moon</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/oecoplan-creme-reiniger/p/5889553</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-ente-aktiv-gel-floral-moon/p/6858915</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>480ml</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>8</v>
-      </c>
+          <t>750ml</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -11808,7 +11806,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0.82/100ml</t>
+          <t>0.53/100ml</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -11818,7 +11816,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -11828,48 +11826,50 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Oecoplan Crème Reiniger 3.95 Schweizer Franken</t>
+          <t>WC Ente Aktiv Gel Floral Moon 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>6858915</t>
+          <t>5889553</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>WC Ente Aktiv Gel Floral Moon</t>
+          <t>Oecoplan Crème Reiniger</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-ente-aktiv-gel-floral-moon/p/6858915</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/oecoplan-creme-reiniger/p/5889553</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>750ml</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+          <t>480ml</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>8</v>
+      </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.53/100ml</t>
+          <t>0.82/100ml</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -11899,17 +11899,17 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-reiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>WC Ente Aktiv Gel Floral Moon 3.95 Schweizer Franken</t>
+          <t>Oecoplan Crème Reiniger 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -11982,194 +11982,192 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6994596</t>
+          <t>4252224</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sun All-in-1 Active Lemon 94 Tabs</t>
+          <t>Cillit Bang Aktiv-schaum 600 ml</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-all-in-1-active-lemon-94-tabs/p/6994596</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/cillit-bang-aktiv-schaum-600-ml/p/4252224</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>94ST</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+          <t>600ml</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>12</v>
+      </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Cillit</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.21/1ST</t>
+          <t>1.16/100ml</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Milliliter</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>Sun All-in-1 Active Lemon 94 Tabs 50% Aktion 19.95 Schweizer Franken statt 40.15 Schweizer Franken</t>
+          <t>Cillit Bang Aktiv-schaum 600 ml 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>4252224</t>
+          <t>6994596</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cillit Bang Aktiv-schaum 600 ml</t>
+          <t>Sun All-in-1 Active Lemon 94 Tabs</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/cillit-bang-aktiv-schaum-600-ml/p/4252224</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-all-in-1-active-lemon-94-tabs/p/6994596</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>600ml</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>12</v>
-      </c>
+          <t>94ST</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Cillit</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.16/100ml</t>
+          <t>0.21/1ST</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Preis pro 100 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>Cillit Bang Aktiv-schaum 600 ml 6.95 Schweizer Franken</t>
+          <t>Sun All-in-1 Active Lemon 94 Tabs 50% Aktion 19.95 Schweizer Franken statt 40.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>6699141</t>
+          <t>4044962</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Dr.Beckmann Kochfeldreiniger</t>
+          <t>Palmolive Ultra Limonenfrisch</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/drbeckmann-kochfeldreiniger/p/6699141</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/palmolive-ultra-limonenfrisch/p/4044962</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>250ml</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>2</v>
-      </c>
+          <t>750ml</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Dr.Beckmann</t>
+          <t>Palmolive</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1.58/100ml</t>
+          <t>0.60/100ml</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -12179,7 +12177,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -12189,58 +12187,60 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>Dr.Beckmann Kochfeldreiniger - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>Palmolive Ultra Limonenfrisch 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4044962</t>
+          <t>4127442</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Palmolive Ultra Limonenfrisch</t>
+          <t>WC-Ente Frische Siegel Limone Refill 2x36ml</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/palmolive-ultra-limonenfrisch/p/4044962</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-frische-siegel-limone-refill-2x36ml/p/4127442</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>750ml</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
+          <t>72ml</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>11</v>
+      </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Palmolive</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.60/100ml</t>
+          <t>11.04/100ml</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -12250,7 +12250,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -12260,60 +12260,60 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>Palmolive Ultra Limonenfrisch 4.50 Schweizer Franken</t>
+          <t>WC-Ente Frische Siegel Limone Refill 2x36ml 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>4127442</t>
+          <t>6699141</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>WC-Ente Frische Siegel Limone Refill 2x36ml</t>
+          <t>Dr.Beckmann Kochfeldreiniger</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-ente-frische-siegel-limone-refill-2x36ml/p/4127442</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/kuechenreiniger/drbeckmann-kochfeldreiniger/p/6699141</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>72ml</t>
+          <t>250ml</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>Dr.Beckmann</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>11.04/100ml</t>
+          <t>1.58/100ml</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -12333,17 +12333,17 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'kuechenreiniger']</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>WC-Ente Frische Siegel Limone Refill 2x36ml 7.95 Schweizer Franken</t>
+          <t>Dr.Beckmann Kochfeldreiniger - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -12706,29 +12706,29 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>6853708</t>
+          <t>6986264</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Clean Kehrgarnitur</t>
+          <t>WC Frisch DeLuxe Magnolia 2x50g</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/bodenwischer-eimer/clean-kehrgarnitur/p/6853708</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-deluxe-magnolia-2x50g/p/6986264</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -12737,64 +12737,64 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>6.60/100g</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'bodenwischer-eimer']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>Clean Kehrgarnitur 4.95 Schweizer Franken</t>
+          <t>WC Frisch DeLuxe Magnolia 2x50g 33% Aktion 6.60 Schweizer Franken statt 9.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>6136454</t>
+          <t>6853708</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Super Clean Flaschenbürste mit Spiralkopf, 1 Stück</t>
+          <t>Clean Kehrgarnitur</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/super-clean-flaschenbuerste-mit-spiralkopf-1-stueck/p/6136454</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/bodenwischer-eimer/clean-kehrgarnitur/p/6853708</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -12813,12 +12813,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2.85/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -12838,161 +12838,145 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'bodenwischer-eimer']</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>Super Clean Flaschenbürste mit Spiralkopf, 1 Stück 2.85 Schweizer Franken</t>
+          <t>Clean Kehrgarnitur 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>6986264</t>
+          <t>6140148</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>WC Frisch DeLuxe Magnolia 2x50g</t>
+          <t>Super Clean Handschuhe Universal FSC gelb M, 1 Paar</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-frisch-deluxe-magnolia-2x50g/p/6986264</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-universal-fsc-gelb-m-1-paar/p/6140148</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
+          <t>1PAAR</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>5</v>
+      </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>6.60/100g</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>WC Frisch DeLuxe Magnolia 2x50g 33% Aktion 6.60 Schweizer Franken statt 9.90 Schweizer Franken</t>
+          <t>Super Clean Handschuhe Universal FSC gelb M, 1 Paar 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>6543118</t>
+          <t>6136454</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Held Universal Flüssig 20 Waschgänge</t>
+          <t>Super Clean Flaschenbürste mit Spiralkopf, 1 Stück</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/held-universal-fluessig-20-waschgaenge/p/6543118</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/super-clean-flaschenbuerste-mit-spiralkopf-1-stueck/p/6136454</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1l</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>2</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Held</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>13.95/1l</t>
+          <t>2.85/1ST</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Preis pro 1 Liter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1l</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>Held Universal Flüssig 20 Waschgänge 13.95 Schweizer Franken</t>
+          <t>Super Clean Flaschenbürste mit Spiralkopf, 1 Stück 2.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -13065,135 +13049,151 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>6808152</t>
+          <t>6543118</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Sun Optimum All-in-1 65 Caps</t>
+          <t>Held Universal Flüssig 20 Waschgänge</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-optimum-all-in-1-65-caps/p/6808152</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/abwaschmittel/held-universal-fluessig-20-waschgaenge/p/6543118</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>65ST</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
+          <t>1l</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>2</v>
+      </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Held</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>0.28/1ST</t>
+          <t>13.95/1l</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Liter</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1l</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'abwaschmittel']</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>Sun Optimum All-in-1 65 Caps 50% Aktion 18.50 Schweizer Franken statt 37.35 Schweizer Franken</t>
+          <t>Held Universal Flüssig 20 Waschgänge 13.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>6140148</t>
+          <t>6808152</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Universal FSC gelb M, 1 Paar</t>
+          <t>Sun Optimum All-in-1 65 Caps</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/super-clean-handschuhe-universal-fsc-gelb-m-1-paar/p/6140148</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-optimum-all-in-1-65-caps/p/6808152</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1PAAR</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>5</v>
-      </c>
+          <t>65ST</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>0.28/1ST</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>Super Clean Handschuhe Universal FSC gelb M, 1 Paar 1.95 Schweizer Franken</t>
+          <t>Sun Optimum All-in-1 65 Caps 50% Aktion 18.50 Schweizer Franken statt 37.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -13339,24 +13339,24 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6708747</t>
+          <t>6858916</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>WC Frisch Kraft-Aktiv Lemon</t>
+          <t>WC Ente Gel Cosmic Peach</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-frisch-kraft-aktiv-lemon/p/6708747</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-ente-gel-cosmic-peach/p/6858916</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -13364,15 +13364,13 @@
           <t>750ml</t>
         </is>
       </c>
-      <c r="E179" t="n">
-        <v>3</v>
-      </c>
+      <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>WC Frisch</t>
+          <t>WC-Ente</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -13407,29 +13405,29 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>WC Frisch Kraft-Aktiv Lemon 3.95 Schweizer Franken</t>
+          <t>WC Ente Gel Cosmic Peach 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6858916</t>
+          <t>6708747</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>WC Ente Gel Cosmic Peach</t>
+          <t>WC Frisch Kraft-Aktiv Lemon</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-ente-gel-cosmic-peach/p/6858916</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-reiniger/wc-frisch-kraft-aktiv-lemon/p/6708747</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -13437,13 +13435,15 @@
           <t>750ml</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>3</v>
+      </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>WC-Ente</t>
+          <t>WC Frisch</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -13478,12 +13478,12 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>WC Ente Gel Cosmic Peach 3.95 Schweizer Franken</t>
+          <t>WC Frisch Kraft-Aktiv Lemon 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -13556,7 +13556,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -13684,34 +13684,32 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>6118649</t>
+          <t>6122086</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Clean Mikrofaser Frotteetuch</t>
+          <t>Super Clean Topfbürste mit Softgriff, 1 Stück</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/clean-mikrofaser-frotteetuch/p/6118649</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/super-clean-topfbuerste-mit-softgriff-1-stueck/p/6122086</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>5</v>
+      </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -13720,67 +13718,53 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>Clean Mikrofaser Frotteetuch 8.95 Schweizer Franken</t>
+          <t>Super Clean Topfbürste mit Softgriff, 1 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6122086</t>
+          <t>6118649</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Super Clean Topfbürste mit Softgriff, 1 Stück</t>
+          <t>Clean Mikrofaser Frotteetuch</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/buersten/super-clean-topfbuerste-mit-softgriff-1-stueck/p/6122086</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/badreiniger/clean-mikrofaser-frotteetuch/p/6118649</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -13789,26 +13773,42 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'buersten']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'badreiniger']</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>Super Clean Topfbürste mit Softgriff, 1 Stück 2.95 Schweizer Franken</t>
+          <t>Clean Mikrofaser Frotteetuch 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -13879,7 +13879,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -13932,7 +13932,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14076,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14364,7 +14364,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14579,7 +14579,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14709,7 +14709,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14926,7 +14926,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15174,7 +15174,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15247,7 +15247,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15320,7 +15320,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15462,7 +15462,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15535,7 +15535,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15606,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15679,7 +15679,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15752,7 +15752,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15896,7 +15896,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16261,7 +16261,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16334,7 +16334,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16478,7 +16478,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16551,7 +16551,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16624,7 +16624,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16754,7 +16754,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -16951,29 +16951,29 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6142173</t>
+          <t>6676966</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Handschuhe Einweg Universal L</t>
+          <t>WC Blue Bloc Intank 2x50g</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/handschuhe-einweg-universal-l/p/6142173</t>
+          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-blue-bloc-intank-2x50g/p/6676966</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>10PAAR</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -16982,53 +16982,69 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Super Clean</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>Handschuhe Einweg Universal L 2.65 Schweizer Franken</t>
+          <t>WC Blue Bloc Intank 2x50g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>6676966</t>
+          <t>6142173</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>WC Blue Bloc Intank 2x50g</t>
+          <t>Handschuhe Einweg Universal L</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/badezimmer/wc-einhaenger/wc-blue-bloc-intank-2x50g/p/6676966</t>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/handschuhe-einweg-universal-l/p/6142173</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>10PAAR</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -17037,47 +17053,31 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Clean</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'badezimmer', 'wc-einhaenger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>WC Blue Bloc Intank 2x50g 2.95 Schweizer Franken</t>
+          <t>Handschuhe Einweg Universal L 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17351,41 +17351,45 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>4171288</t>
+          <t>6662056</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Scotch-Brite® Synthetischer Reinigungsschwamm Soft</t>
+          <t>Prix Garantie Handschuhe Grösse S 2 Paar</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-synthetischer-reinigungsschwamm-soft/p/4171288</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/prix-garantie-handschuhe-groesse-s-2-paar/p/6662056</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2PAAR</t>
+        </is>
+      </c>
       <c r="E237" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Scotch-Brite</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I237" t="inlineStr"/>
@@ -17394,55 +17398,51 @@
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>Scotch-Brite® Synthetischer Reinigungsschwamm Soft 2.75 Schweizer Franken</t>
+          <t>Prix Garantie Handschuhe Grösse S 2 Paar 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6662056</t>
+          <t>4171288</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Prix Garantie Handschuhe Grösse S 2 Paar</t>
+          <t>Scotch-Brite® Synthetischer Reinigungsschwamm Soft</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/handschuhe/prix-garantie-handschuhe-groesse-s-2-paar/p/6662056</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>2PAAR</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/schwaemme/scotch-brite-synthetischer-reinigungsschwamm-soft/p/4171288</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F238" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch-Brite</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I238" t="inlineStr"/>
@@ -17451,17 +17451,17 @@
       <c r="L238" t="inlineStr"/>
       <c r="M238" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'handschuhe']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'schwaemme']</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>Prix Garantie Handschuhe Grösse S 2 Paar 1.50 Schweizer Franken</t>
+          <t>Scotch-Brite® Synthetischer Reinigungsschwamm Soft 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17532,7 +17532,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17707,7 +17707,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -17849,29 +17849,29 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6965443</t>
+          <t>6851633</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Finish Power All-in-1 Citrus 50 Tabs</t>
+          <t>Frosch Baby Hygiene Reiniger</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/finish-power-all-in-1-citrus-50-tabs/p/6965443</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/frosch-baby-hygiene-reiniger/p/6851633</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>500ml</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
@@ -17880,69 +17880,69 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Finish</t>
+          <t>Frosch</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>0.30/1ST</t>
+          <t>0.01/1ml</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Milliliter</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1ml</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>Finish Power All-in-1 Citrus 50 Tabs 14.95 Schweizer Franken</t>
+          <t>Frosch Baby Hygiene Reiniger 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6851633</t>
+          <t>6965443</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Frosch Baby Hygiene Reiniger</t>
+          <t>Finish Power All-in-1 Citrus 50 Tabs</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/allzweck-bodenreiniger/frosch-baby-hygiene-reiniger/p/6851633</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/finish-power-all-in-1-citrus-50-tabs/p/6965443</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>500ml</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -17951,47 +17951,47 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Frosch</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>0.01/1ml</t>
+          <t>0.30/1ST</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Preis pro 1 Milliliter</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>1ml</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'allzweck-bodenreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>Frosch Baby Hygiene Reiniger 4.95 Schweizer Franken</t>
+          <t>Finish Power All-in-1 Citrus 50 Tabs 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18206,7 +18206,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18279,7 +18279,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18352,7 +18352,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18407,7 +18407,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18584,7 +18584,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18655,7 +18655,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18799,7 +18799,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18872,7 +18872,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19014,7 +19014,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19087,121 +19087,121 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>6878048</t>
+          <t>6994597</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>everdrop Glasreiniger Tab</t>
+          <t>Sun Geschirrspül Tabs All-in-1 Active Regular 94 Stück</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/everdrop-glasreiniger-tab/p/6878048</t>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-geschirrspuel-tabs-all-in-1-active-regular-94-stueck/p/6994597</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
+          <t>94ST</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>0.21/1ST</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E263" t="n">
-        <v>2</v>
-      </c>
-      <c r="F263" t="n">
-        <v>3</v>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>everdrop</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>2.50/1ST</t>
-        </is>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>everdrop Glasreiniger Tab 2.50 Schweizer Franken</t>
+          <t>Sun Geschirrspül Tabs All-in-1 Active Regular 94 Stück 50% Aktion 19.95 Schweizer Franken statt 40.15 Schweizer Franken</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6994597</t>
+          <t>6878048</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Sun Geschirrspül Tabs All-in-1 Active Regular 94 Stück</t>
+          <t>everdrop Glasreiniger Tab</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-geschirrspuel-tabs-all-in-1-active-regular-94-stueck/p/6994597</t>
+          <t>/de/haushalt-tier/reinigung-putzen/allzweck-glasreiniger/glasreiniger/everdrop-glasreiniger-tab/p/6878048</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>94ST</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>2</v>
+      </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>everdrop</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>0.21/1ST</t>
+          <t>2.50/1ST</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -19221,17 +19221,17 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'allzweck-glasreiniger', 'glasreiniger']</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>Sun Geschirrspül Tabs All-in-1 Active Regular 94 Stück 50% Aktion 19.95 Schweizer Franken statt 40.15 Schweizer Franken</t>
+          <t>everdrop Glasreiniger Tab 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19377,7 +19377,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19434,7 +19434,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19507,7 +19507,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19578,7 +19578,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19651,7 +19651,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19724,7 +19724,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19797,7 +19797,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -19927,7 +19927,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20000,7 +20000,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20073,7 +20073,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20146,7 +20146,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20219,7 +20219,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20290,7 +20290,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20363,7 +20363,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20434,7 +20434,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20505,7 +20505,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20686,7 +20686,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20828,7 +20828,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20899,7 +20899,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -20972,7 +20972,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21023,7 +21023,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21096,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21149,7 +21149,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21220,129 +21220,129 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>6872629</t>
+          <t>3407679</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Sun Classic Active Regular 55 Tabs</t>
+          <t>Vileda UltraMat Ersatzbezug</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-classic-active-regular-55-tabs/p/6872629</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>55ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/bodenwischer-eimer/vileda-ultramat-ersatzbezug/p/3407679</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Vileda</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I294" t="inlineStr">
-        <is>
-          <t>0.27/1ST</t>
-        </is>
-      </c>
-      <c r="J294" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'bodenwischer-eimer']</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>Sun Classic Active Regular 55 Tabs 14.95 Schweizer Franken</t>
+          <t>Vileda UltraMat Ersatzbezug 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>3407679</t>
+          <t>6872629</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Vileda UltraMat Ersatzbezug</t>
+          <t>Sun Classic Active Regular 55 Tabs</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/reinigung-putzen/schwaemme-lappen-buersten/bodenwischer-eimer/vileda-ultramat-ersatzbezug/p/3407679</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
+          <t>/de/haushalt-tier/reinigung-putzen/kueche/tabs-pulver-gel/sun-classic-active-regular-55-tabs/p/6872629</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>55ST</t>
+        </is>
+      </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
         <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Vileda</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>16.95</t>
-        </is>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>0.27/1ST</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'reinigung-putzen', 'schwaemme-lappen-buersten', 'bodenwischer-eimer']</t>
+          <t>['haushalt-tier', 'reinigung-putzen', 'kueche', 'tabs-pulver-gel']</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>Vileda UltraMat Ersatzbezug 16.95 Schweizer Franken</t>
+          <t>Sun Classic Active Regular 55 Tabs 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21415,7 +21415,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21488,7 +21488,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21539,7 +21539,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21612,7 +21612,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21754,7 +21754,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21896,7 +21896,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -21969,7 +21969,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -22111,7 +22111,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -22184,7 +22184,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
@@ -22235,7 +22235,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:14</t>
+          <t>2022-07-31 20:57:40</t>
         </is>
       </c>
     </row>
